--- a/32 LLM for CJM/02 segment names and id.xlsx
+++ b/32 LLM for CJM/02 segment names and id.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Data-Practice\32 LLM for CJM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC90822-9251-48AD-A6A6-2451AF99BFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE08A09-D23C-4773-BC4F-026F33981237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>Мужчины 46-70 лет</t>
   </si>
   <si>
-    <t>Клиенты более 100к на карте</t>
+    <t>Клиенты более 500к на карте</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
